--- a/info/kreise_idx.xlsx
+++ b/info/kreise_idx.xlsx
@@ -1,799 +1,818 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jan.Eggers@hr.de/Nextcloud2/hr-DDJ/projekte/ltwhe23/info/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBF1749-A107-4540-A18B-EB73CCE59CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23880" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="258">
-  <si>
-    <t xml:space="preserve">wk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wk_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kreise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gemeinden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bevoelkerung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flaeche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bev_dichte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dichte_quintil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">direkt_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">landesstimmen_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kassel-Land I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landkreis Kassel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GMFC4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z4NLL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kassel-Land II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bDgR0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc0c9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kassel I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kassel (Stadt)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kc0xS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S0kMN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kassel II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">w2WVf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kxazv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waldeck-Frankenberg I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landkreis Waldeck-Frankenberg Landkreis Kassel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0JWGw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f7pdN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waldeck-Frankenberg II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landkreis Waldeck-Frankenberg Schwalm-Eder-Kreis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MVN9B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S11jL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schwalm-Eder I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landkreis Kassel Schwalm-Eder-Kreis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4xGUC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mwsvB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schwalm-Eder II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schwalm-Eder-Kreis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i4SVI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ggWjF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eschwege-Witzenhausen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landkreis Kassel Werra-Meißner-Kreis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2dV0n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0tXLq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotenburg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Werra-Meißner-Kreis Landkreis Hersfeld-Rotenburg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yRJmu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5Z3yu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hersfeld</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landkreis Fulda Landkreis Hersfeld-Rotenburg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y8iFX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zS5rT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marburg-Biedenkopf I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landkreis Marburg-Biedenkopf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1X86Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B327z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marburg-Biedenkopf II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9IeLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zISJV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fulda I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landkreis Fulda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9mMCG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C8uzo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fulda II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9I9Um</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69jR3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lahn-Dill I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lahn-Dill-Kreis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5AoSy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0mu3Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lahn-Dill II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KFQkS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6NeUk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gießen I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landkreis Gießen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCuC8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FcFup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gießen II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s8cQe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZHH3x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vogelsberg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landkreis Gießen Vogelsbergkreis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SgWbU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uJOTC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Limburg-Weilburg I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landkreis Limburg-Weilburg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t2H7f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fAMUJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Limburg-Weilburg II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lahn-Dill-Kreis Landkreis Limburg-Weilburg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lwgkl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rm9wH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hochtaunus I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hochtaunuskreis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rnxrZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67mrZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hochtaunus II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noJ9H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b0Tqr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wetterau I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wetteraukreis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x7cGW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZqREQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wetterau II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wetteraukreis Main-Kinzig-Kreis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WYJZW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orsAc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wetterau III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T58oo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNJed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rheingau-Taunus I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rheingau-Taunus-Kreis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W9ghG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2FZI2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rheingau-Taunus II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uVSsb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bg1yd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wiesbaden I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wiesbaden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q0lUG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z2xgb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wiesbaden II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10akg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UHSA0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main-Taunus I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main-Taunus-Kreis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eY24K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4BK5Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main-Taunus II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6cQF8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d8czT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frankfurt am Main I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frankfurt am Main</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P7YQ0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WJR9t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frankfurt am Main II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6U4Nz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64z9i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lwcxD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dEeBk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PnWyp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qo68x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17Cjv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D3KTP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">McTrT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z5hgO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main-Kinzig I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main-Kinzig-Kreis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zLOHx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4LJry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main-Kinzig II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">j5zIi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WAwbA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main-Kinzig III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PQ97g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XcNQM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Offenbach-Stadt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Offenbach am Main</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fAR0B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">moMLQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Offenbach Land I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landkreis Offenbach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VzG1J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ioPW8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Offenbach Land II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aV2kM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mo9ep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Offenbach Land III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WBZp4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mZKdC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Groß-Gerau I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landkreis Groß-Gerau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8QUg0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AmgNu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Groß-Gerau II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pocn0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">362XN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Darmstadt-Stadt I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Darmstadt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0W6nW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TYfZ2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Darmstadt-Stadt II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Darmstadt Landkreis Darmstadt-Dieburg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D77Fc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blBw4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Darmstadt-Dieburg I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landkreis Darmstadt-Dieburg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oXN32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d6pCh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Darmstadt-Dieburg II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mM1wY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3wWD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Odenwald</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Odenwaldkreis Landkreis Bergstraße</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8KWpU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cxqzP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bergstraße I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landkreis Bergstraße</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0ab6W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UaptM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bergstraße II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hUsoq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iq0Nu</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="262">
+  <si>
+    <t>wk</t>
+  </si>
+  <si>
+    <t>wk_name</t>
+  </si>
+  <si>
+    <t>kreise</t>
+  </si>
+  <si>
+    <t>gemeinden</t>
+  </si>
+  <si>
+    <t>bevoelkerung</t>
+  </si>
+  <si>
+    <t>flaeche</t>
+  </si>
+  <si>
+    <t>bev_dichte</t>
+  </si>
+  <si>
+    <t>dichte_quintil</t>
+  </si>
+  <si>
+    <t>direkt_id</t>
+  </si>
+  <si>
+    <t>landesstimmen_id</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>Kassel-Land I</t>
+  </si>
+  <si>
+    <t>Landkreis Kassel</t>
+  </si>
+  <si>
+    <t>GMFC4</t>
+  </si>
+  <si>
+    <t>Z4NLL</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>Kassel-Land II</t>
+  </si>
+  <si>
+    <t>bDgR0</t>
+  </si>
+  <si>
+    <t>hc0c9</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>Kassel I</t>
+  </si>
+  <si>
+    <t>Kassel (Stadt)</t>
+  </si>
+  <si>
+    <t>kc0xS</t>
+  </si>
+  <si>
+    <t>S0kMN</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>Kassel II</t>
+  </si>
+  <si>
+    <t>w2WVf</t>
+  </si>
+  <si>
+    <t>Kxazv</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>Waldeck-Frankenberg I</t>
+  </si>
+  <si>
+    <t>Landkreis Waldeck-Frankenberg Landkreis Kassel</t>
+  </si>
+  <si>
+    <t>0JWGw</t>
+  </si>
+  <si>
+    <t>f7pdN</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>Waldeck-Frankenberg II</t>
+  </si>
+  <si>
+    <t>Landkreis Waldeck-Frankenberg Schwalm-Eder-Kreis</t>
+  </si>
+  <si>
+    <t>MVN9B</t>
+  </si>
+  <si>
+    <t>S11jL</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>Schwalm-Eder I</t>
+  </si>
+  <si>
+    <t>Landkreis Kassel Schwalm-Eder-Kreis</t>
+  </si>
+  <si>
+    <t>4xGUC</t>
+  </si>
+  <si>
+    <t>mwsvB</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>Schwalm-Eder II</t>
+  </si>
+  <si>
+    <t>Schwalm-Eder-Kreis</t>
+  </si>
+  <si>
+    <t>i4SVI</t>
+  </si>
+  <si>
+    <t>ggWjF</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>Eschwege-Witzenhausen</t>
+  </si>
+  <si>
+    <t>Landkreis Kassel Werra-Meißner-Kreis</t>
+  </si>
+  <si>
+    <t>2dV0n</t>
+  </si>
+  <si>
+    <t>0tXLq</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>Rotenburg</t>
+  </si>
+  <si>
+    <t>Werra-Meißner-Kreis Landkreis Hersfeld-Rotenburg</t>
+  </si>
+  <si>
+    <t>yRJmu</t>
+  </si>
+  <si>
+    <t>5Z3yu</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>Hersfeld</t>
+  </si>
+  <si>
+    <t>Landkreis Fulda Landkreis Hersfeld-Rotenburg</t>
+  </si>
+  <si>
+    <t>Y8iFX</t>
+  </si>
+  <si>
+    <t>zS5rT</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>Marburg-Biedenkopf I</t>
+  </si>
+  <si>
+    <t>Landkreis Marburg-Biedenkopf</t>
+  </si>
+  <si>
+    <t>1X86Y</t>
+  </si>
+  <si>
+    <t>B327z</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>Marburg-Biedenkopf II</t>
+  </si>
+  <si>
+    <t>9IeLC</t>
+  </si>
+  <si>
+    <t>zISJV</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>Fulda I</t>
+  </si>
+  <si>
+    <t>Landkreis Fulda</t>
+  </si>
+  <si>
+    <t>9mMCG</t>
+  </si>
+  <si>
+    <t>C8uzo</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>Fulda II</t>
+  </si>
+  <si>
+    <t>9I9Um</t>
+  </si>
+  <si>
+    <t>69jR3</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>Lahn-Dill I</t>
+  </si>
+  <si>
+    <t>Lahn-Dill-Kreis</t>
+  </si>
+  <si>
+    <t>5AoSy</t>
+  </si>
+  <si>
+    <t>0mu3Z</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>Lahn-Dill II</t>
+  </si>
+  <si>
+    <t>KFQkS</t>
+  </si>
+  <si>
+    <t>6NeUk</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>Gießen I</t>
+  </si>
+  <si>
+    <t>Landkreis Gießen</t>
+  </si>
+  <si>
+    <t>MCuC8</t>
+  </si>
+  <si>
+    <t>FcFup</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>Gießen II</t>
+  </si>
+  <si>
+    <t>s8cQe</t>
+  </si>
+  <si>
+    <t>ZHH3x</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>Vogelsberg</t>
+  </si>
+  <si>
+    <t>Landkreis Gießen Vogelsbergkreis</t>
+  </si>
+  <si>
+    <t>SgWbU</t>
+  </si>
+  <si>
+    <t>uJOTC</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>Limburg-Weilburg I</t>
+  </si>
+  <si>
+    <t>Landkreis Limburg-Weilburg</t>
+  </si>
+  <si>
+    <t>t2H7f</t>
+  </si>
+  <si>
+    <t>fAMUJ</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>Limburg-Weilburg II</t>
+  </si>
+  <si>
+    <t>Lahn-Dill-Kreis Landkreis Limburg-Weilburg</t>
+  </si>
+  <si>
+    <t>lwgkl</t>
+  </si>
+  <si>
+    <t>Rm9wH</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>Hochtaunus I</t>
+  </si>
+  <si>
+    <t>Hochtaunuskreis</t>
+  </si>
+  <si>
+    <t>rnxrZ</t>
+  </si>
+  <si>
+    <t>67mrZ</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>Hochtaunus II</t>
+  </si>
+  <si>
+    <t>noJ9H</t>
+  </si>
+  <si>
+    <t>b0Tqr</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>Wetterau I</t>
+  </si>
+  <si>
+    <t>Wetteraukreis</t>
+  </si>
+  <si>
+    <t>x7cGW</t>
+  </si>
+  <si>
+    <t>ZqREQ</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>Wetterau II</t>
+  </si>
+  <si>
+    <t>Wetteraukreis Main-Kinzig-Kreis</t>
+  </si>
+  <si>
+    <t>WYJZW</t>
+  </si>
+  <si>
+    <t>orsAc</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>Wetterau III</t>
+  </si>
+  <si>
+    <t>T58oo</t>
+  </si>
+  <si>
+    <t>SNJed</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>Rheingau-Taunus I</t>
+  </si>
+  <si>
+    <t>Rheingau-Taunus-Kreis</t>
+  </si>
+  <si>
+    <t>W9ghG</t>
+  </si>
+  <si>
+    <t>2FZI2</t>
+  </si>
+  <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>Rheingau-Taunus II</t>
+  </si>
+  <si>
+    <t>uVSsb</t>
+  </si>
+  <si>
+    <t>bg1yd</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>Wiesbaden I</t>
+  </si>
+  <si>
+    <t>Wiesbaden</t>
+  </si>
+  <si>
+    <t>Q0lUG</t>
+  </si>
+  <si>
+    <t>Z2xgb</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>Wiesbaden II</t>
+  </si>
+  <si>
+    <t>10akg</t>
+  </si>
+  <si>
+    <t>UHSA0</t>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>Main-Taunus I</t>
+  </si>
+  <si>
+    <t>Main-Taunus-Kreis</t>
+  </si>
+  <si>
+    <t>eY24K</t>
+  </si>
+  <si>
+    <t>4BK5Z</t>
+  </si>
+  <si>
+    <t>033</t>
+  </si>
+  <si>
+    <t>Main-Taunus II</t>
+  </si>
+  <si>
+    <t>6cQF8</t>
+  </si>
+  <si>
+    <t>d8czT</t>
+  </si>
+  <si>
+    <t>034</t>
+  </si>
+  <si>
+    <t>Frankfurt am Main I</t>
+  </si>
+  <si>
+    <t>Frankfurt am Main</t>
+  </si>
+  <si>
+    <t>P7YQ0</t>
+  </si>
+  <si>
+    <t>WJR9t</t>
+  </si>
+  <si>
+    <t>035</t>
+  </si>
+  <si>
+    <t>Frankfurt am Main II</t>
+  </si>
+  <si>
+    <t>6U4Nz</t>
+  </si>
+  <si>
+    <t>64z9i</t>
+  </si>
+  <si>
+    <t>036</t>
+  </si>
+  <si>
+    <t>lwcxD</t>
+  </si>
+  <si>
+    <t>dEeBk</t>
+  </si>
+  <si>
+    <t>037</t>
+  </si>
+  <si>
+    <t>PnWyp</t>
+  </si>
+  <si>
+    <t>qo68x</t>
+  </si>
+  <si>
+    <t>038</t>
+  </si>
+  <si>
+    <t>17Cjv</t>
+  </si>
+  <si>
+    <t>D3KTP</t>
+  </si>
+  <si>
+    <t>039</t>
+  </si>
+  <si>
+    <t>McTrT</t>
+  </si>
+  <si>
+    <t>Z5hgO</t>
+  </si>
+  <si>
+    <t>040</t>
+  </si>
+  <si>
+    <t>Main-Kinzig I</t>
+  </si>
+  <si>
+    <t>Main-Kinzig-Kreis</t>
+  </si>
+  <si>
+    <t>zLOHx</t>
+  </si>
+  <si>
+    <t>4LJry</t>
+  </si>
+  <si>
+    <t>041</t>
+  </si>
+  <si>
+    <t>Main-Kinzig II</t>
+  </si>
+  <si>
+    <t>j5zIi</t>
+  </si>
+  <si>
+    <t>WAwbA</t>
+  </si>
+  <si>
+    <t>042</t>
+  </si>
+  <si>
+    <t>Main-Kinzig III</t>
+  </si>
+  <si>
+    <t>PQ97g</t>
+  </si>
+  <si>
+    <t>XcNQM</t>
+  </si>
+  <si>
+    <t>043</t>
+  </si>
+  <si>
+    <t>Offenbach-Stadt</t>
+  </si>
+  <si>
+    <t>Offenbach am Main</t>
+  </si>
+  <si>
+    <t>fAR0B</t>
+  </si>
+  <si>
+    <t>moMLQ</t>
+  </si>
+  <si>
+    <t>044</t>
+  </si>
+  <si>
+    <t>Offenbach Land I</t>
+  </si>
+  <si>
+    <t>Landkreis Offenbach</t>
+  </si>
+  <si>
+    <t>VzG1J</t>
+  </si>
+  <si>
+    <t>ioPW8</t>
+  </si>
+  <si>
+    <t>045</t>
+  </si>
+  <si>
+    <t>Offenbach Land II</t>
+  </si>
+  <si>
+    <t>aV2kM</t>
+  </si>
+  <si>
+    <t>mo9ep</t>
+  </si>
+  <si>
+    <t>046</t>
+  </si>
+  <si>
+    <t>Offenbach Land III</t>
+  </si>
+  <si>
+    <t>WBZp4</t>
+  </si>
+  <si>
+    <t>mZKdC</t>
+  </si>
+  <si>
+    <t>047</t>
+  </si>
+  <si>
+    <t>Groß-Gerau I</t>
+  </si>
+  <si>
+    <t>Landkreis Groß-Gerau</t>
+  </si>
+  <si>
+    <t>8QUg0</t>
+  </si>
+  <si>
+    <t>AmgNu</t>
+  </si>
+  <si>
+    <t>048</t>
+  </si>
+  <si>
+    <t>Groß-Gerau II</t>
+  </si>
+  <si>
+    <t>Pocn0</t>
+  </si>
+  <si>
+    <t>362XN</t>
+  </si>
+  <si>
+    <t>049</t>
+  </si>
+  <si>
+    <t>Darmstadt-Stadt I</t>
+  </si>
+  <si>
+    <t>Darmstadt</t>
+  </si>
+  <si>
+    <t>0W6nW</t>
+  </si>
+  <si>
+    <t>TYfZ2</t>
+  </si>
+  <si>
+    <t>050</t>
+  </si>
+  <si>
+    <t>Darmstadt-Stadt II</t>
+  </si>
+  <si>
+    <t>Darmstadt Landkreis Darmstadt-Dieburg</t>
+  </si>
+  <si>
+    <t>D77Fc</t>
+  </si>
+  <si>
+    <t>blBw4</t>
+  </si>
+  <si>
+    <t>051</t>
+  </si>
+  <si>
+    <t>Darmstadt-Dieburg I</t>
+  </si>
+  <si>
+    <t>Landkreis Darmstadt-Dieburg</t>
+  </si>
+  <si>
+    <t>oXN32</t>
+  </si>
+  <si>
+    <t>d6pCh</t>
+  </si>
+  <si>
+    <t>052</t>
+  </si>
+  <si>
+    <t>Darmstadt-Dieburg II</t>
+  </si>
+  <si>
+    <t>mM1wY</t>
+  </si>
+  <si>
+    <t>Q3wWD</t>
+  </si>
+  <si>
+    <t>053</t>
+  </si>
+  <si>
+    <t>Odenwald</t>
+  </si>
+  <si>
+    <t>Odenwaldkreis Landkreis Bergstraße</t>
+  </si>
+  <si>
+    <t>8KWpU</t>
+  </si>
+  <si>
+    <t>cxqzP</t>
+  </si>
+  <si>
+    <t>054</t>
+  </si>
+  <si>
+    <t>Bergstraße I</t>
+  </si>
+  <si>
+    <t>Landkreis Bergstraße</t>
+  </si>
+  <si>
+    <t>0ab6W</t>
+  </si>
+  <si>
+    <t>UaptM</t>
+  </si>
+  <si>
+    <t>055</t>
+  </si>
+  <si>
+    <t>Bergstraße II</t>
+  </si>
+  <si>
+    <t>hUsoq</t>
+  </si>
+  <si>
+    <t>iq0Nu</t>
+  </si>
+  <si>
+    <t>Frankfurt am Main III</t>
+  </si>
+  <si>
+    <t>Frankfurt am Main IV</t>
+  </si>
+  <si>
+    <t>Frankfurt am Main V</t>
+  </si>
+  <si>
+    <t>Frankfurt am Main VI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -826,9 +845,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1110,14 +1138,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1149,7 +1183,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1159,19 +1193,19 @@
       <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>16</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>102531</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>915.651883</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>111.975961501954</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
@@ -1181,7 +1215,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1191,19 +1225,19 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>8</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>105675</v>
       </c>
-      <c r="F3" t="n">
-        <v>211.961998</v>
-      </c>
-      <c r="G3" t="n">
-        <v>498.556349709442</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="F3">
+        <v>211.96199799999999</v>
+      </c>
+      <c r="G3">
+        <v>498.55634970944197</v>
+      </c>
+      <c r="H3">
         <v>3</v>
       </c>
       <c r="I3" t="s">
@@ -1213,7 +1247,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1223,19 +1257,19 @@
       <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>200406</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>106.786767</v>
       </c>
-      <c r="G4" t="n">
-        <v>1876.69320487996</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="G4">
+        <v>1876.6932048799599</v>
+      </c>
+      <c r="H4">
         <v>5</v>
       </c>
       <c r="I4" t="s">
@@ -1245,7 +1279,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1255,19 +1289,19 @@
       <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>200406</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>106.786767</v>
       </c>
-      <c r="G5" t="n">
-        <v>1876.69320487996</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="G5">
+        <v>1876.6932048799599</v>
+      </c>
+      <c r="H5">
         <v>5</v>
       </c>
       <c r="I5" t="s">
@@ -1277,7 +1311,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1287,19 +1321,19 @@
       <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>11</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>88095</v>
       </c>
-      <c r="F6" t="n">
-        <v>1070.976743</v>
-      </c>
-      <c r="G6" t="n">
-        <v>82.2566881828171</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="F6">
+        <v>1070.9767429999999</v>
+      </c>
+      <c r="G6">
+        <v>82.256688182817101</v>
+      </c>
+      <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
@@ -1309,7 +1343,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1319,19 +1353,19 @@
       <c r="C7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>13</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>88201</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>932.858924</v>
       </c>
-      <c r="G7" t="n">
-        <v>94.5491303463159</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="G7">
+        <v>94.549130346315906</v>
+      </c>
+      <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
@@ -1341,7 +1375,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1351,19 +1385,19 @@
       <c r="C8" t="s">
         <v>40</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>13</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>92325</v>
       </c>
-      <c r="F8" t="n">
-        <v>594.178263</v>
-      </c>
-      <c r="G8" t="n">
-        <v>155.382661650818</v>
-      </c>
-      <c r="H8" t="n">
+      <c r="F8">
+        <v>594.17826300000002</v>
+      </c>
+      <c r="G8">
+        <v>155.38266165081799</v>
+      </c>
+      <c r="H8">
         <v>2</v>
       </c>
       <c r="I8" t="s">
@@ -1373,7 +1407,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -1383,19 +1417,19 @@
       <c r="C9" t="s">
         <v>45</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>15</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>89362</v>
       </c>
-      <c r="F9" t="n">
-        <v>925.569237</v>
-      </c>
-      <c r="G9" t="n">
-        <v>96.5481526694258</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="F9">
+        <v>925.56923700000004</v>
+      </c>
+      <c r="G9">
+        <v>96.548152669425804</v>
+      </c>
+      <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
@@ -1405,7 +1439,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -1415,19 +1449,19 @@
       <c r="C10" t="s">
         <v>50</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>10</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>79512</v>
       </c>
-      <c r="F10" t="n">
-        <v>551.081865</v>
-      </c>
-      <c r="G10" t="n">
-        <v>144.283463220115</v>
-      </c>
-      <c r="H10" t="n">
+      <c r="F10">
+        <v>551.08186499999999</v>
+      </c>
+      <c r="G10">
+        <v>144.28346322011501</v>
+      </c>
+      <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
@@ -1437,7 +1471,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -1447,19 +1481,19 @@
       <c r="C11" t="s">
         <v>55</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>17</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>80339</v>
       </c>
-      <c r="F11" t="n">
-        <v>1025.592671</v>
-      </c>
-      <c r="G11" t="n">
-        <v>78.3342181274226</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="F11">
+        <v>1025.5926710000001</v>
+      </c>
+      <c r="G11">
+        <v>78.334218127422602</v>
+      </c>
+      <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" t="s">
@@ -1469,7 +1503,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -1479,19 +1513,19 @@
       <c r="C12" t="s">
         <v>60</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>14</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>82614</v>
       </c>
-      <c r="F12" t="n">
-        <v>710.354787</v>
-      </c>
-      <c r="G12" t="n">
+      <c r="F12">
+        <v>710.35478699999999</v>
+      </c>
+      <c r="G12">
         <v>116.299631552986</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" t="s">
@@ -1501,7 +1535,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -1511,19 +1545,19 @@
       <c r="C13" t="s">
         <v>65</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>17</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>117033</v>
       </c>
-      <c r="F13" t="n">
-        <v>868.511904</v>
-      </c>
-      <c r="G13" t="n">
+      <c r="F13">
+        <v>868.51190399999996</v>
+      </c>
+      <c r="G13">
         <v>134.751175500296</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>1</v>
       </c>
       <c r="I13" t="s">
@@ -1533,7 +1567,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>68</v>
       </c>
@@ -1543,19 +1577,19 @@
       <c r="C14" t="s">
         <v>65</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>5</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>129064</v>
       </c>
-      <c r="F14" t="n">
-        <v>393.855915</v>
-      </c>
-      <c r="G14" t="n">
-        <v>327.693440886879</v>
-      </c>
-      <c r="H14" t="n">
+      <c r="F14">
+        <v>393.85591499999998</v>
+      </c>
+      <c r="G14">
+        <v>327.69344088687899</v>
+      </c>
+      <c r="H14">
         <v>2</v>
       </c>
       <c r="I14" t="s">
@@ -1565,7 +1599,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>72</v>
       </c>
@@ -1575,19 +1609,19 @@
       <c r="C15" t="s">
         <v>74</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>5</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>100194</v>
       </c>
-      <c r="F15" t="n">
-        <v>356.27374</v>
-      </c>
-      <c r="G15" t="n">
+      <c r="F15">
+        <v>356.27373999999998</v>
+      </c>
+      <c r="G15">
         <v>281.227575178569</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>2</v>
       </c>
       <c r="I15" t="s">
@@ -1597,7 +1631,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -1607,19 +1641,19 @@
       <c r="C16" t="s">
         <v>74</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>15</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>108434</v>
       </c>
-      <c r="F16" t="n">
-        <v>839.188683</v>
-      </c>
-      <c r="G16" t="n">
-        <v>129.212895975147</v>
-      </c>
-      <c r="H16" t="n">
+      <c r="F16">
+        <v>839.18868299999997</v>
+      </c>
+      <c r="G16">
+        <v>129.21289597514701</v>
+      </c>
+      <c r="H16">
         <v>1</v>
       </c>
       <c r="I16" t="s">
@@ -1629,7 +1663,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>81</v>
       </c>
@@ -1639,19 +1673,19 @@
       <c r="C17" t="s">
         <v>83</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>13</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>121197</v>
       </c>
-      <c r="F17" t="n">
-        <v>647.863523</v>
-      </c>
-      <c r="G17" t="n">
-        <v>187.071807097249</v>
-      </c>
-      <c r="H17" t="n">
+      <c r="F17">
+        <v>647.86352299999999</v>
+      </c>
+      <c r="G17">
+        <v>187.07180709724901</v>
+      </c>
+      <c r="H17">
         <v>2</v>
       </c>
       <c r="I17" t="s">
@@ -1661,7 +1695,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -1671,19 +1705,19 @@
       <c r="C18" t="s">
         <v>83</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>9</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>127382</v>
       </c>
-      <c r="F18" t="n">
-        <v>373.684611</v>
-      </c>
-      <c r="G18" t="n">
-        <v>340.881043131851</v>
-      </c>
-      <c r="H18" t="n">
+      <c r="F18">
+        <v>373.68461100000002</v>
+      </c>
+      <c r="G18">
+        <v>340.88104313185102</v>
+      </c>
+      <c r="H18">
         <v>3</v>
       </c>
       <c r="I18" t="s">
@@ -1693,7 +1727,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>90</v>
       </c>
@@ -1703,19 +1737,19 @@
       <c r="C19" t="s">
         <v>92</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>5</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>132084</v>
       </c>
-      <c r="F19" t="n">
-        <v>191.434826</v>
-      </c>
-      <c r="G19" t="n">
-        <v>689.968501342593</v>
-      </c>
-      <c r="H19" t="n">
+      <c r="F19">
+        <v>191.43482599999999</v>
+      </c>
+      <c r="G19">
+        <v>689.96850134259296</v>
+      </c>
+      <c r="H19">
         <v>4</v>
       </c>
       <c r="I19" t="s">
@@ -1725,7 +1759,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -1735,19 +1769,19 @@
       <c r="C20" t="s">
         <v>92</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>11</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>126168</v>
       </c>
-      <c r="F20" t="n">
-        <v>522.719751</v>
-      </c>
-      <c r="G20" t="n">
+      <c r="F20">
+        <v>522.71975099999997</v>
+      </c>
+      <c r="G20">
         <v>241.368342708749</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>2</v>
       </c>
       <c r="I20" t="s">
@@ -1757,7 +1791,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -1767,19 +1801,19 @@
       <c r="C21" t="s">
         <v>101</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>21</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>120293</v>
       </c>
-      <c r="F21" t="n">
-        <v>1599.323375</v>
-      </c>
-      <c r="G21" t="n">
-        <v>75.2149326898946</v>
-      </c>
-      <c r="H21" t="n">
+      <c r="F21">
+        <v>1599.3233749999999</v>
+      </c>
+      <c r="G21">
+        <v>75.214932689894596</v>
+      </c>
+      <c r="H21">
         <v>1</v>
       </c>
       <c r="I21" t="s">
@@ -1789,7 +1823,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>104</v>
       </c>
@@ -1799,19 +1833,19 @@
       <c r="C22" t="s">
         <v>106</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>8</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>89405</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>264.671943</v>
       </c>
-      <c r="G22" t="n">
-        <v>337.795532789057</v>
-      </c>
-      <c r="H22" t="n">
+      <c r="G22">
+        <v>337.79553278905701</v>
+      </c>
+      <c r="H22">
         <v>3</v>
       </c>
       <c r="I22" t="s">
@@ -1821,7 +1855,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -1831,19 +1865,19 @@
       <c r="C23" t="s">
         <v>111</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>12</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>88139</v>
       </c>
-      <c r="F23" t="n">
-        <v>518.522135</v>
-      </c>
-      <c r="G23" t="n">
-        <v>169.981171584893</v>
-      </c>
-      <c r="H23" t="n">
+      <c r="F23">
+        <v>518.52213500000005</v>
+      </c>
+      <c r="G23">
+        <v>169.98117158489299</v>
+      </c>
+      <c r="H23">
         <v>2</v>
       </c>
       <c r="I23" t="s">
@@ -1853,7 +1887,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>114</v>
       </c>
@@ -1863,19 +1897,19 @@
       <c r="C24" t="s">
         <v>116</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>6</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>123485</v>
       </c>
-      <c r="F24" t="n">
-        <v>254.68835</v>
-      </c>
-      <c r="G24" t="n">
-        <v>484.84746161338</v>
-      </c>
-      <c r="H24" t="n">
+      <c r="F24">
+        <v>254.68835000000001</v>
+      </c>
+      <c r="G24">
+        <v>484.84746161338001</v>
+      </c>
+      <c r="H24">
         <v>3</v>
       </c>
       <c r="I24" t="s">
@@ -1885,7 +1919,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>119</v>
       </c>
@@ -1895,19 +1929,19 @@
       <c r="C25" t="s">
         <v>116</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>7</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>113556</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>227.152075</v>
       </c>
-      <c r="G25" t="n">
-        <v>499.911788170986</v>
-      </c>
-      <c r="H25" t="n">
+      <c r="G25">
+        <v>499.91178817098597</v>
+      </c>
+      <c r="H25">
         <v>3</v>
       </c>
       <c r="I25" t="s">
@@ -1917,7 +1951,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>123</v>
       </c>
@@ -1927,19 +1961,19 @@
       <c r="C26" t="s">
         <v>125</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>6</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>116795</v>
       </c>
-      <c r="F26" t="n">
-        <v>220.752519</v>
-      </c>
-      <c r="G26" t="n">
-        <v>529.076635361067</v>
-      </c>
-      <c r="H26" t="n">
+      <c r="F26">
+        <v>220.75251900000001</v>
+      </c>
+      <c r="G26">
+        <v>529.07663536106702</v>
+      </c>
+      <c r="H26">
         <v>3</v>
       </c>
       <c r="I26" t="s">
@@ -1949,7 +1983,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>128</v>
       </c>
@@ -1959,19 +1993,19 @@
       <c r="C27" t="s">
         <v>130</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>13</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>119154</v>
       </c>
-      <c r="F27" t="n">
-        <v>640.070938</v>
-      </c>
-      <c r="G27" t="n">
-        <v>186.157491187328</v>
-      </c>
-      <c r="H27" t="n">
+      <c r="F27">
+        <v>640.07093799999996</v>
+      </c>
+      <c r="G27">
+        <v>186.15749118732799</v>
+      </c>
+      <c r="H27">
         <v>2</v>
       </c>
       <c r="I27" t="s">
@@ -1981,7 +2015,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>133</v>
       </c>
@@ -1991,19 +2025,19 @@
       <c r="C28" t="s">
         <v>125</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>9</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>106607</v>
       </c>
-      <c r="F28" t="n">
-        <v>372.478842</v>
-      </c>
-      <c r="G28" t="n">
-        <v>286.209545292777</v>
-      </c>
-      <c r="H28" t="n">
+      <c r="F28">
+        <v>372.47884199999999</v>
+      </c>
+      <c r="G28">
+        <v>286.20954529277702</v>
+      </c>
+      <c r="H28">
         <v>2</v>
       </c>
       <c r="I28" t="s">
@@ -2013,7 +2047,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>137</v>
       </c>
@@ -2023,19 +2057,19 @@
       <c r="C29" t="s">
         <v>139</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>10</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>89017</v>
       </c>
-      <c r="F29" t="n">
-        <v>444.24927</v>
-      </c>
-      <c r="G29" t="n">
-        <v>200.37624372461</v>
-      </c>
-      <c r="H29" t="n">
+      <c r="F29">
+        <v>444.24927000000002</v>
+      </c>
+      <c r="G29">
+        <v>200.37624372460999</v>
+      </c>
+      <c r="H29">
         <v>2</v>
       </c>
       <c r="I29" t="s">
@@ -2045,7 +2079,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>142</v>
       </c>
@@ -2055,19 +2089,19 @@
       <c r="C30" t="s">
         <v>139</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>7</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>98212</v>
       </c>
-      <c r="F30" t="n">
-        <v>367.158219</v>
-      </c>
-      <c r="G30" t="n">
-        <v>267.492309630143</v>
-      </c>
-      <c r="H30" t="n">
+      <c r="F30">
+        <v>367.15821899999997</v>
+      </c>
+      <c r="G30">
+        <v>267.49230963014298</v>
+      </c>
+      <c r="H30">
         <v>2</v>
       </c>
       <c r="I30" t="s">
@@ -2077,7 +2111,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>146</v>
       </c>
@@ -2087,19 +2121,19 @@
       <c r="C31" t="s">
         <v>148</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>278950</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>203.867738</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>1368.28908162016</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
         <v>4</v>
       </c>
       <c r="I31" t="s">
@@ -2109,7 +2143,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>151</v>
       </c>
@@ -2119,19 +2153,19 @@
       <c r="C32" t="s">
         <v>148</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>1</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>278950</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>203.867738</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>1368.28908162016</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>5</v>
       </c>
       <c r="I32" t="s">
@@ -2141,7 +2175,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>155</v>
       </c>
@@ -2151,19 +2185,19 @@
       <c r="C33" t="s">
         <v>157</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>7</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>120531</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>100.081357</v>
       </c>
-      <c r="G33" t="n">
-        <v>1204.33019308481</v>
-      </c>
-      <c r="H33" t="n">
+      <c r="G33">
+        <v>1204.3301930848099</v>
+      </c>
+      <c r="H33">
         <v>4</v>
       </c>
       <c r="I33" t="s">
@@ -2173,7 +2207,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>160</v>
       </c>
@@ -2183,19 +2217,19 @@
       <c r="C34" t="s">
         <v>157</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>5</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>118745</v>
       </c>
-      <c r="F34" t="n">
-        <v>122.448056</v>
-      </c>
-      <c r="G34" t="n">
-        <v>969.75814789579</v>
-      </c>
-      <c r="H34" t="n">
+      <c r="F34">
+        <v>122.44805599999999</v>
+      </c>
+      <c r="G34">
+        <v>969.75814789578999</v>
+      </c>
+      <c r="H34">
         <v>4</v>
       </c>
       <c r="I34" t="s">
@@ -2205,7 +2239,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>164</v>
       </c>
@@ -2215,19 +2249,19 @@
       <c r="C35" t="s">
         <v>166</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>1</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>759224</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>248.313118</v>
       </c>
-      <c r="G35" t="n">
-        <v>3057.52674733841</v>
-      </c>
-      <c r="H35" t="n">
+      <c r="G35">
+        <v>3057.5267473384101</v>
+      </c>
+      <c r="H35">
         <v>5</v>
       </c>
       <c r="I35" t="s">
@@ -2237,7 +2271,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>169</v>
       </c>
@@ -2247,19 +2281,19 @@
       <c r="C36" t="s">
         <v>166</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>1</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>759224</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>248.313118</v>
       </c>
-      <c r="G36" t="n">
-        <v>3057.52674733841</v>
-      </c>
-      <c r="H36" t="n">
+      <c r="G36">
+        <v>3057.5267473384101</v>
+      </c>
+      <c r="H36">
         <v>5</v>
       </c>
       <c r="I36" t="s">
@@ -2269,29 +2303,29 @@
         <v>172</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>173</v>
       </c>
       <c r="B37" t="s">
-        <v>170</v>
+        <v>258</v>
       </c>
       <c r="C37" t="s">
         <v>166</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>1</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>759224</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>248.313118</v>
       </c>
-      <c r="G37" t="n">
-        <v>3057.52674733841</v>
-      </c>
-      <c r="H37" t="n">
+      <c r="G37">
+        <v>3057.5267473384101</v>
+      </c>
+      <c r="H37">
         <v>5</v>
       </c>
       <c r="I37" t="s">
@@ -2301,29 +2335,29 @@
         <v>175</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>176</v>
       </c>
       <c r="B38" t="s">
-        <v>170</v>
+        <v>259</v>
       </c>
       <c r="C38" t="s">
         <v>166</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>1</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>759224</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>248.313118</v>
       </c>
-      <c r="G38" t="n">
-        <v>3057.52674733841</v>
-      </c>
-      <c r="H38" t="n">
+      <c r="G38">
+        <v>3057.5267473384101</v>
+      </c>
+      <c r="H38">
         <v>5</v>
       </c>
       <c r="I38" t="s">
@@ -2333,29 +2367,29 @@
         <v>178</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>179</v>
       </c>
       <c r="B39" t="s">
-        <v>170</v>
+        <v>260</v>
       </c>
       <c r="C39" t="s">
         <v>166</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>1</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>759224</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>248.313118</v>
       </c>
-      <c r="G39" t="n">
-        <v>3057.52674733841</v>
-      </c>
-      <c r="H39" t="n">
+      <c r="G39">
+        <v>3057.5267473384101</v>
+      </c>
+      <c r="H39">
         <v>5</v>
       </c>
       <c r="I39" t="s">
@@ -2365,29 +2399,29 @@
         <v>181</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>182</v>
       </c>
       <c r="B40" t="s">
-        <v>170</v>
+        <v>261</v>
       </c>
       <c r="C40" t="s">
         <v>166</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>1</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>759224</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>248.313118</v>
       </c>
-      <c r="G40" t="n">
-        <v>3057.52674733841</v>
-      </c>
-      <c r="H40" t="n">
+      <c r="G40">
+        <v>3057.5267473384101</v>
+      </c>
+      <c r="H40">
         <v>5</v>
       </c>
       <c r="I40" t="s">
@@ -2397,7 +2431,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>185</v>
       </c>
@@ -2407,19 +2441,19 @@
       <c r="C41" t="s">
         <v>187</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>10</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>126227</v>
       </c>
-      <c r="F41" t="n">
-        <v>242.553208</v>
-      </c>
-      <c r="G41" t="n">
-        <v>520.409525979141</v>
-      </c>
-      <c r="H41" t="n">
+      <c r="F41">
+        <v>242.55320800000001</v>
+      </c>
+      <c r="G41">
+        <v>520.40952597914099</v>
+      </c>
+      <c r="H41">
         <v>3</v>
       </c>
       <c r="I41" t="s">
@@ -2429,7 +2463,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>190</v>
       </c>
@@ -2439,19 +2473,19 @@
       <c r="C42" t="s">
         <v>187</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>4</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>149225</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>122.871375</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>1214.48140382575</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
         <v>4</v>
       </c>
       <c r="I42" t="s">
@@ -2461,7 +2495,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>194</v>
       </c>
@@ -2471,19 +2505,19 @@
       <c r="C43" t="s">
         <v>187</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>12</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>117118</v>
       </c>
-      <c r="F43" t="n">
-        <v>809.970252</v>
-      </c>
-      <c r="G43" t="n">
-        <v>144.595433857983</v>
-      </c>
-      <c r="H43" t="n">
+      <c r="F43">
+        <v>809.97025199999996</v>
+      </c>
+      <c r="G43">
+        <v>144.59543385798301</v>
+      </c>
+      <c r="H43">
         <v>1</v>
       </c>
       <c r="I43" t="s">
@@ -2493,7 +2527,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>198</v>
       </c>
@@ -2503,19 +2537,19 @@
       <c r="C44" t="s">
         <v>200</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>2</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>262590</v>
       </c>
-      <c r="F44" t="n">
-        <v>89.760206</v>
-      </c>
-      <c r="G44" t="n">
-        <v>2925.46120047897</v>
-      </c>
-      <c r="H44" t="n">
+      <c r="F44">
+        <v>89.760205999999997</v>
+      </c>
+      <c r="G44">
+        <v>2925.4612004789701</v>
+      </c>
+      <c r="H44">
         <v>5</v>
       </c>
       <c r="I44" t="s">
@@ -2525,7 +2559,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>203</v>
       </c>
@@ -2535,19 +2569,19 @@
       <c r="C45" t="s">
         <v>205</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>4</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>130408</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>121.492108</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>1073.38659396707</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
         <v>4</v>
       </c>
       <c r="I45" t="s">
@@ -2557,7 +2591,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>208</v>
       </c>
@@ -2567,19 +2601,19 @@
       <c r="C46" t="s">
         <v>205</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>4</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>107547</v>
       </c>
-      <c r="F46" t="n">
-        <v>74.998086</v>
-      </c>
-      <c r="G46" t="n">
+      <c r="F46">
+        <v>74.998086000000001</v>
+      </c>
+      <c r="G46">
         <v>1433.99659559312</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
         <v>5</v>
       </c>
       <c r="I46" t="s">
@@ -2589,7 +2623,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>212</v>
       </c>
@@ -2599,19 +2633,19 @@
       <c r="C47" t="s">
         <v>205</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>5</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>119511</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>159.75339</v>
       </c>
-      <c r="G47" t="n">
-        <v>748.096800950515</v>
-      </c>
-      <c r="H47" t="n">
+      <c r="G47">
+        <v>748.09680095051499</v>
+      </c>
+      <c r="H47">
         <v>4</v>
       </c>
       <c r="I47" t="s">
@@ -2621,7 +2655,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>216</v>
       </c>
@@ -2631,19 +2665,19 @@
       <c r="C48" t="s">
         <v>218</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>6</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>139832</v>
       </c>
-      <c r="F48" t="n">
-        <v>123.036065</v>
-      </c>
-      <c r="G48" t="n">
+      <c r="F48">
+        <v>123.03606499999999</v>
+      </c>
+      <c r="G48">
         <v>1136.51229011591</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
         <v>4</v>
       </c>
       <c r="I48" t="s">
@@ -2653,7 +2687,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>221</v>
       </c>
@@ -2663,19 +2697,19 @@
       <c r="C49" t="s">
         <v>218</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>8</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>136475</v>
       </c>
-      <c r="F49" t="n">
-        <v>329.994006</v>
-      </c>
-      <c r="G49" t="n">
-        <v>413.568117961512</v>
-      </c>
-      <c r="H49" t="n">
+      <c r="F49">
+        <v>329.99400600000001</v>
+      </c>
+      <c r="G49">
+        <v>413.56811796151197</v>
+      </c>
+      <c r="H49">
         <v>3</v>
       </c>
       <c r="I49" t="s">
@@ -2685,7 +2719,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>225</v>
       </c>
@@ -2695,19 +2729,19 @@
       <c r="C50" t="s">
         <v>227</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>1</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>159631</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>122.073718</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>1307.6606710709</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H50">
         <v>4</v>
       </c>
       <c r="I50" t="s">
@@ -2717,7 +2751,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>230</v>
       </c>
@@ -2727,19 +2761,19 @@
       <c r="C51" t="s">
         <v>232</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>8</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>230089</v>
       </c>
-      <c r="F51" t="n">
-        <v>300.936365</v>
-      </c>
-      <c r="G51" t="n">
-        <v>764.576923098011</v>
-      </c>
-      <c r="H51" t="n">
+      <c r="F51">
+        <v>300.93636500000002</v>
+      </c>
+      <c r="G51">
+        <v>764.57692309801098</v>
+      </c>
+      <c r="H51">
         <v>4</v>
       </c>
       <c r="I51" t="s">
@@ -2749,7 +2783,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>235</v>
       </c>
@@ -2759,19 +2793,19 @@
       <c r="C52" t="s">
         <v>237</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>7</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>117819</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>158.935115</v>
       </c>
-      <c r="G52" t="n">
-        <v>741.302512034549</v>
-      </c>
-      <c r="H52" t="n">
+      <c r="G52">
+        <v>741.30251203454895</v>
+      </c>
+      <c r="H52">
         <v>4</v>
       </c>
       <c r="I52" t="s">
@@ -2781,7 +2815,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>240</v>
       </c>
@@ -2791,19 +2825,19 @@
       <c r="C53" t="s">
         <v>237</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>9</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>108623</v>
       </c>
-      <c r="F53" t="n">
-        <v>320.837677</v>
-      </c>
-      <c r="G53" t="n">
-        <v>338.560611134209</v>
-      </c>
-      <c r="H53" t="n">
+      <c r="F53">
+        <v>320.83767699999999</v>
+      </c>
+      <c r="G53">
+        <v>338.56061113420901</v>
+      </c>
+      <c r="H53">
         <v>3</v>
       </c>
       <c r="I53" t="s">
@@ -2813,7 +2847,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>244</v>
       </c>
@@ -2823,19 +2857,19 @@
       <c r="C54" t="s">
         <v>246</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>15</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>114937</v>
       </c>
-      <c r="F54" t="n">
-        <v>746.376073</v>
-      </c>
-      <c r="G54" t="n">
-        <v>153.993414523619</v>
-      </c>
-      <c r="H54" t="n">
+      <c r="F54">
+        <v>746.37607300000002</v>
+      </c>
+      <c r="G54">
+        <v>153.99341452361901</v>
+      </c>
+      <c r="H54">
         <v>2</v>
       </c>
       <c r="I54" t="s">
@@ -2845,7 +2879,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>249</v>
       </c>
@@ -2855,19 +2889,19 @@
       <c r="C55" t="s">
         <v>251</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>6</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>132757</v>
       </c>
-      <c r="F55" t="n">
-        <v>272.957941</v>
-      </c>
-      <c r="G55" t="n">
-        <v>486.364307679182</v>
-      </c>
-      <c r="H55" t="n">
+      <c r="F55">
+        <v>272.95794100000001</v>
+      </c>
+      <c r="G55">
+        <v>486.36430767918199</v>
+      </c>
+      <c r="H55">
         <v>3</v>
       </c>
       <c r="I55" t="s">
@@ -2877,7 +2911,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>254</v>
       </c>
@@ -2887,19 +2921,19 @@
       <c r="C56" t="s">
         <v>251</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>13</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>120425</v>
       </c>
-      <c r="F56" t="n">
-        <v>319.226824</v>
-      </c>
-      <c r="G56" t="n">
-        <v>377.239601895109</v>
-      </c>
-      <c r="H56" t="n">
+      <c r="F56">
+        <v>319.22682400000002</v>
+      </c>
+      <c r="G56">
+        <v>377.23960189510899</v>
+      </c>
+      <c r="H56">
         <v>3</v>
       </c>
       <c r="I56" t="s">
@@ -2911,6 +2945,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>